--- a/resources/experiment 2/metrics/MAPE/average time/Microalbuminuria.xlsx
+++ b/resources/experiment 2/metrics/MAPE/average time/Microalbuminuria.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07099646612410197</v>
+        <v>0.01474759464883743</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07099646612410197</v>
+        <v>0.01511028007094146</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07099646612410197</v>
+        <v>257891443789675.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75613045135163.33</v>
+        <v>0.01552429973541219</v>
       </c>
       <c r="C4" t="n">
-        <v>75613045135163.33</v>
+        <v>0.01658962487133521</v>
       </c>
       <c r="D4" t="n">
-        <v>75613045135163.33</v>
+        <v>74684523125812.67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>176878525599402.2</v>
+        <v>49106809746385.05</v>
       </c>
       <c r="C5" t="n">
-        <v>176878525599402.2</v>
+        <v>22001254883931.89</v>
       </c>
       <c r="D5" t="n">
-        <v>176878525599402.2</v>
+        <v>246334403328739.3</v>
       </c>
     </row>
   </sheetData>
